--- a/数据整理/stocks/港股/02359-药明康德.xlsx
+++ b/数据整理/stocks/港股/02359-药明康德.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="122">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,235 +22,364 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>010357</t>
+  </si>
+  <si>
+    <t>005847</t>
+  </si>
+  <si>
+    <t>160322</t>
+  </si>
+  <si>
     <t>001764</t>
   </si>
   <si>
+    <t>005354</t>
+  </si>
+  <si>
+    <t>005228</t>
+  </si>
+  <si>
+    <t>001685</t>
+  </si>
+  <si>
+    <t>008264</t>
+  </si>
+  <si>
+    <t>005197</t>
+  </si>
+  <si>
+    <t>010644</t>
+  </si>
+  <si>
+    <t>010645</t>
+  </si>
+  <si>
+    <t>010358</t>
+  </si>
+  <si>
+    <t>470888</t>
+  </si>
+  <si>
+    <t>011114</t>
+  </si>
+  <si>
+    <t>008265</t>
+  </si>
+  <si>
+    <t>011117</t>
+  </si>
+  <si>
+    <t>007132</t>
+  </si>
+  <si>
+    <t>005198</t>
+  </si>
+  <si>
+    <t>004091</t>
+  </si>
+  <si>
     <t>001824</t>
   </si>
   <si>
-    <t>004091</t>
+    <t>005883</t>
   </si>
   <si>
     <t>004092</t>
   </si>
   <si>
-    <t>005197</t>
-  </si>
-  <si>
-    <t>005198</t>
-  </si>
-  <si>
-    <t>005228</t>
-  </si>
-  <si>
-    <t>005354</t>
-  </si>
-  <si>
-    <t>011114</t>
-  </si>
-  <si>
-    <t>010357</t>
-  </si>
-  <si>
-    <t>010358</t>
-  </si>
-  <si>
-    <t>470888</t>
-  </si>
-  <si>
-    <t>007132</t>
-  </si>
-  <si>
-    <t>010644</t>
-  </si>
-  <si>
-    <t>010645</t>
-  </si>
-  <si>
-    <t>001685</t>
-  </si>
-  <si>
-    <t>160322</t>
-  </si>
-  <si>
-    <t>005847</t>
-  </si>
-  <si>
-    <t>011117</t>
-  </si>
-  <si>
-    <t>005883</t>
-  </si>
-  <si>
-    <t>008264</t>
-  </si>
-  <si>
-    <t>008265</t>
+    <t>南方阿尔法混合A</t>
+  </si>
+  <si>
+    <t>富国沪港深业绩驱动混合A</t>
+  </si>
+  <si>
+    <t>华夏港股通精选股票(LOF)</t>
   </si>
   <si>
     <t>广发沪港深新机遇股票</t>
   </si>
   <si>
+    <t>富国沪港深行业精选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>汇添富港股通专注成长混合</t>
+  </si>
+  <si>
+    <t>汇添富沪港深新价值股票</t>
+  </si>
+  <si>
+    <t>南方ESG主题股票A</t>
+  </si>
+  <si>
+    <t>工银瑞信沪港深精选灵活配置混合A</t>
+  </si>
+  <si>
+    <t>富国全球健康生活主题混合（QDII）人民币</t>
+  </si>
+  <si>
+    <t>富国全球健康生活主题混合（QDII）美元</t>
+  </si>
+  <si>
+    <t>南方阿尔法混合C</t>
+  </si>
+  <si>
+    <t>汇添富香港优势精选混合 (QDII)</t>
+  </si>
+  <si>
+    <t>富国沪港深行业精选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>南方ESG主题股票C</t>
+  </si>
+  <si>
+    <t>富国沪港深业绩驱动混合C</t>
+  </si>
+  <si>
+    <t>长城港股通价值精选多策略混合</t>
+  </si>
+  <si>
+    <t>工银瑞信沪港深精选灵活配置混合C</t>
+  </si>
+  <si>
+    <t>博时沪港深价值优选灵活配置混合A</t>
+  </si>
+  <si>
     <t>博时沪港深成长企业混合</t>
   </si>
   <si>
-    <t>博时沪港深价值优选灵活配置混合A</t>
+    <t>华宝港股通香港精选混合</t>
   </si>
   <si>
     <t>博时沪港深价值优选灵活配置混合C</t>
   </si>
   <si>
-    <t>工银瑞信沪港深精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>工银瑞信沪港深精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>汇添富港股通专注成长混合</t>
-  </si>
-  <si>
-    <t>富国沪港深行业精选灵活配置混合A</t>
-  </si>
-  <si>
-    <t>富国沪港深行业精选灵活配置混合C</t>
-  </si>
-  <si>
-    <t>南方阿尔法混合A</t>
-  </si>
-  <si>
-    <t>南方阿尔法混合C</t>
-  </si>
-  <si>
-    <t>汇添富香港优势精选混合 (QDII)</t>
-  </si>
-  <si>
-    <t>长城港股通价值精选多策略混合</t>
-  </si>
-  <si>
-    <t>富国全球健康生活主题混合（QDII）人民币</t>
-  </si>
-  <si>
-    <t>富国全球健康生活主题混合（QDII）美元</t>
-  </si>
-  <si>
-    <t>汇添富沪港深新价值股票</t>
-  </si>
-  <si>
-    <t>华夏港股通精选股票(LOF)</t>
-  </si>
-  <si>
-    <t>富国沪港深业绩驱动混合A</t>
-  </si>
-  <si>
-    <t>富国沪港深业绩驱动混合C</t>
-  </si>
-  <si>
-    <t>华宝港股通香港精选混合</t>
-  </si>
-  <si>
-    <t>南方ESG主题股票A</t>
-  </si>
-  <si>
-    <t>南方ESG主题股票C</t>
+    <t>68.51</t>
+  </si>
+  <si>
+    <t>95.34</t>
+  </si>
+  <si>
+    <t>37.05</t>
+  </si>
+  <si>
+    <t>30.40</t>
+  </si>
+  <si>
+    <t>101.23</t>
+  </si>
+  <si>
+    <t>11.21</t>
+  </si>
+  <si>
+    <t>5.67</t>
+  </si>
+  <si>
+    <t>13.74</t>
+  </si>
+  <si>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>8.72</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>9.60</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>86.39</t>
+  </si>
+  <si>
+    <t>73.53</t>
+  </si>
+  <si>
+    <t>85.89</t>
   </si>
   <si>
     <t>81.71</t>
   </si>
   <si>
+    <t>75.80</t>
+  </si>
+  <si>
+    <t>86.95</t>
+  </si>
+  <si>
+    <t>84.15</t>
+  </si>
+  <si>
+    <t>88.91</t>
+  </si>
+  <si>
+    <t>94.82</t>
+  </si>
+  <si>
+    <t>84.44</t>
+  </si>
+  <si>
+    <t>79.75</t>
+  </si>
+  <si>
+    <t>87.91</t>
+  </si>
+  <si>
+    <t>88.23</t>
+  </si>
+  <si>
     <t>91.74</t>
   </si>
   <si>
-    <t>88.23</t>
-  </si>
-  <si>
-    <t>94.82</t>
-  </si>
-  <si>
-    <t>86.95</t>
-  </si>
-  <si>
-    <t>75.80</t>
-  </si>
-  <si>
-    <t>86.39</t>
-  </si>
-  <si>
-    <t>79.75</t>
-  </si>
-  <si>
-    <t>87.91</t>
-  </si>
-  <si>
-    <t>84.44</t>
-  </si>
-  <si>
-    <t>84.15</t>
-  </si>
-  <si>
-    <t>85.89</t>
-  </si>
-  <si>
-    <t>73.53</t>
-  </si>
-  <si>
     <t>74.11</t>
   </si>
   <si>
-    <t>88.91</t>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.15</t>
+  </si>
+  <si>
+    <t>4.54</t>
   </si>
   <si>
     <t>5.19</t>
   </si>
   <si>
+    <t>1.53</t>
+  </si>
+  <si>
+    <t>9.51</t>
+  </si>
+  <si>
+    <t>9.45</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>9.59</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
     <t>4.92</t>
   </si>
   <si>
-    <t>4.04</t>
-  </si>
-  <si>
-    <t>4.22</t>
-  </si>
-  <si>
-    <t>9.51</t>
-  </si>
-  <si>
-    <t>1.53</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>9.59</t>
-  </si>
-  <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>5.48</t>
-  </si>
-  <si>
-    <t>9.45</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
     <t>3.21</t>
   </si>
   <si>
-    <t>3.70</t>
+    <t>2.1581</t>
+  </si>
+  <si>
+    <t>2.0498</t>
+  </si>
+  <si>
+    <t>1.6821</t>
+  </si>
+  <si>
+    <t>1.5778</t>
+  </si>
+  <si>
+    <t>1.5488</t>
+  </si>
+  <si>
+    <t>1.0661</t>
+  </si>
+  <si>
+    <t>0.5358</t>
+  </si>
+  <si>
+    <t>0.5084</t>
+  </si>
+  <si>
+    <t>0.3802</t>
+  </si>
+  <si>
+    <t>0.2921</t>
+  </si>
+  <si>
+    <t>0.2747</t>
+  </si>
+  <si>
+    <t>0.2004</t>
+  </si>
+  <si>
+    <t>0.1469</t>
+  </si>
+  <si>
+    <t>0.1099</t>
+  </si>
+  <si>
+    <t>0.1043</t>
+  </si>
+  <si>
+    <t>0.0790</t>
+  </si>
+  <si>
+    <t>0.0654</t>
+  </si>
+  <si>
+    <t>0.0267</t>
+  </si>
+  <si>
+    <t>0.0172</t>
+  </si>
+  <si>
+    <t>0.0103</t>
+  </si>
+  <si>
+    <t>0.0040</t>
   </si>
 </sst>
 </file>
@@ -608,13 +737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,445 +759,583 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02359-药明康德.xlsx
+++ b/数据整理/stocks/港股/02359-药明康德.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3747,4 +3748,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02359-药明康德.xlsx
+++ b/数据整理/stocks/港股/02359-药明康德.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3756,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3767,17 +3768,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3787,14 +3808,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.62</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7794</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3803,13 +3846,1145 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4626</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9934</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9032</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5514</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001685</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富沪港深新价值股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>22</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>13.13</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02359-药明康德.xlsx
+++ b/数据整理/stocks/港股/02359-药明康德.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4915,7 +4916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4926,17 +4927,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4946,14 +4967,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.02</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4962,14 +5005,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>62</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.62</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4978,13 +5043,1313 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9877</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9087</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6683</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>22</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>13.13</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02359-药明康德.xlsx
+++ b/数据整理/stocks/港股/02359-药明康德.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6264,7 +6265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6275,17 +6276,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6295,14 +6316,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.44</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6311,14 +6354,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.02</v>
+          <t>005354</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6327,14 +6392,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.62</v>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8770</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6343,13 +6430,1211 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6397</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.13</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02359-药明康德.xlsx
+++ b/数据整理/stocks/港股/02359-药明康德.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>8.06</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>10.44</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>11.02</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>24.62</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.13</v>
       </c>
     </row>
@@ -566,6 +583,818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1395</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012893</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1833,7 +2662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3181,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4339,7 +5168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6751,7 +7580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02359-药明康德.xlsx
+++ b/数据整理/stocks/港股/02359-药明康德.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>4.82</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>8.06</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>10.44</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>11.02</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>24.62</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.13</v>
       </c>
     </row>
@@ -583,6 +600,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0436</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008954</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012892</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8335</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信优质企业三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3772</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012239</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>惠升优势企业一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证香港创新药（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016298</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006395</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏沪港通上证50AH优选指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>016297</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010667</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信价值回报三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015118</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015119</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合D</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1394,7 +2681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2662,7 +3949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4010,7 +5297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5168,7 +6455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7580,7 +8867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
